--- a/InputFiles/ICDC_ProgramsPage.xlsx
+++ b/InputFiles/ICDC_ProgramsPage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\FebBranch\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\March\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5A7D3F-03BD-4C35-9E48-0D4D64BE9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E337E7-A13B-4E7F-B80A-880EF599BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="programs" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <t>stdCntVal</t>
   </si>
   <si>
-    <t xml:space="preserve">
-The COP is a core resource for CCR investigators who are interested in the use of comparative cancer models.</t>
-  </si>
-  <si>
     <t>Comparative Oncology Program</t>
   </si>
   <si>
@@ -72,6 +68,9 @@
   </si>
   <si>
     <t>stdCntIndex</t>
+  </si>
+  <si>
+    <t>The COP is a core resource for CCR investigators who are interested in the use of comparative cancer models.</t>
   </si>
 </sst>
 </file>
@@ -113,12 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,95 +402,96 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -517,12 +518,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
